--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Receive_Date_metata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Receive_Date_metata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F29EC-D15B-47F2-A279-0EF996207EC1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9107766-6C43-4FEA-9DD7-62B58E633B9C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4B7CB9F8-0F69-4A60-AE9B-3CE4E5C4380E}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Receive_Month_Abbreviation</t>
   </si>
   <si>
-    <t>Receive_KEY</t>
-  </si>
-  <si>
     <t>Receive_Day_Of_Year</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>The Vehicle receiving Year in CCYY format</t>
+  </si>
+  <si>
+    <t>Receive_KEY  &lt;PK&gt;</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -306,28 +306,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,13 +650,13 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
@@ -667,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
@@ -677,253 +678,253 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1997</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1997</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B15" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="13">
-        <v>3000</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="C17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="13">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16">
+        <v>35431</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="14">
-        <v>35431</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="D22" s="7"/>
     </row>
